--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp8a-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp8a-Acvr2a.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H2">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I2">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J2">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N2">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q2">
-        <v>7.292027356378667</v>
+        <v>16.32521790877445</v>
       </c>
       <c r="R2">
-        <v>65.62824620740801</v>
+        <v>146.92696117897</v>
       </c>
       <c r="S2">
-        <v>0.06496013478588712</v>
+        <v>0.103434280322844</v>
       </c>
       <c r="T2">
-        <v>0.06496013478588712</v>
+        <v>0.103434280322844</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H3">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I3">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J3">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N3">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q3">
-        <v>19.62044844493155</v>
+        <v>33.25504494850222</v>
       </c>
       <c r="R3">
-        <v>176.584036004384</v>
+        <v>299.29540453652</v>
       </c>
       <c r="S3">
-        <v>0.1747863678031047</v>
+        <v>0.2106992789053913</v>
       </c>
       <c r="T3">
-        <v>0.1747863678031047</v>
+        <v>0.2106992789053913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H4">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I4">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J4">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N4">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q4">
-        <v>13.22160275013244</v>
+        <v>23.02765644936555</v>
       </c>
       <c r="R4">
-        <v>118.994424751192</v>
+        <v>207.24890804429</v>
       </c>
       <c r="S4">
-        <v>0.1177830327230959</v>
+        <v>0.1458999864915513</v>
       </c>
       <c r="T4">
-        <v>0.1177830327230959</v>
+        <v>0.1458999864915513</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H5">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I5">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J5">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N5">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O5">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P5">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q5">
-        <v>3.611503276633777</v>
+        <v>5.579830088793333</v>
       </c>
       <c r="R5">
-        <v>32.50352948970399</v>
+        <v>50.21847079913999</v>
       </c>
       <c r="S5">
-        <v>0.03217263569706504</v>
+        <v>0.03535301720217075</v>
       </c>
       <c r="T5">
-        <v>0.03217263569706504</v>
+        <v>0.03535301720217076</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H6">
         <v>1.414049</v>
       </c>
       <c r="I6">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J6">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N6">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O6">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P6">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q6">
-        <v>5.087690797340668</v>
+        <v>6.720209268024778</v>
       </c>
       <c r="R6">
-        <v>45.78921717606601</v>
+        <v>60.481883412223</v>
       </c>
       <c r="S6">
-        <v>0.04532307186904153</v>
+        <v>0.04257829899369663</v>
       </c>
       <c r="T6">
-        <v>0.04532307186904153</v>
+        <v>0.04257829899369663</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H7">
         <v>1.414049</v>
       </c>
       <c r="I7">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J7">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N7">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O7">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P7">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q7">
         <v>13.68930341514089</v>
@@ -883,10 +883,10 @@
         <v>123.203730736268</v>
       </c>
       <c r="S7">
-        <v>0.1219494869550348</v>
+        <v>0.08673349751154683</v>
       </c>
       <c r="T7">
-        <v>0.1219494869550348</v>
+        <v>0.08673349751154684</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H8">
         <v>1.414049</v>
       </c>
       <c r="I8">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J8">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N8">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O8">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P8">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q8">
-        <v>9.224790768112111</v>
+        <v>9.47924071560122</v>
       </c>
       <c r="R8">
-        <v>83.02311691300901</v>
+        <v>85.313166440411</v>
       </c>
       <c r="S8">
-        <v>0.08217792149997687</v>
+        <v>0.06005913347706233</v>
       </c>
       <c r="T8">
-        <v>0.08217792149997687</v>
+        <v>0.06005913347706235</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H9">
         <v>1.414049</v>
       </c>
       <c r="I9">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J9">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N9">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O9">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P9">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q9">
-        <v>2.519767286531445</v>
+        <v>2.296914263947333</v>
       </c>
       <c r="R9">
-        <v>22.677905578783</v>
+        <v>20.672228375526</v>
       </c>
       <c r="S9">
-        <v>0.02244703901432425</v>
+        <v>0.01455292512371142</v>
       </c>
       <c r="T9">
-        <v>0.02244703901432425</v>
+        <v>0.01455292512371143</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H10">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I10">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J10">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N10">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O10">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P10">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q10">
-        <v>5.440855691622667</v>
+        <v>9.015252296298</v>
       </c>
       <c r="R10">
-        <v>48.96770122460401</v>
+        <v>81.137270666682</v>
       </c>
       <c r="S10">
-        <v>0.04846919818110675</v>
+        <v>0.0571193682318482</v>
       </c>
       <c r="T10">
-        <v>0.04846919818110675</v>
+        <v>0.05711936823184822</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H11">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I11">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J11">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N11">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O11">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P11">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q11">
-        <v>14.63955404671022</v>
+        <v>18.364387048968</v>
       </c>
       <c r="R11">
-        <v>131.755986420392</v>
+        <v>165.279483440712</v>
       </c>
       <c r="S11">
-        <v>0.1304146786075485</v>
+        <v>0.1163541686606963</v>
       </c>
       <c r="T11">
-        <v>0.1304146786075485</v>
+        <v>0.1163541686606963</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H12">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I12">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J12">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N12">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O12">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P12">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q12">
-        <v>9.865134764271776</v>
+        <v>12.716530575186</v>
       </c>
       <c r="R12">
-        <v>88.78621287844599</v>
+        <v>114.448775176674</v>
       </c>
       <c r="S12">
-        <v>0.08788234775442293</v>
+        <v>0.08057014586867148</v>
       </c>
       <c r="T12">
-        <v>0.08788234775442294</v>
+        <v>0.08057014586867151</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H13">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I13">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J13">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N13">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O13">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P13">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q13">
-        <v>2.694678338089111</v>
+        <v>3.081341780676</v>
       </c>
       <c r="R13">
-        <v>24.252105042802</v>
+        <v>27.732076026084</v>
       </c>
       <c r="S13">
-        <v>0.02400521274700891</v>
+        <v>0.01952294733791146</v>
       </c>
       <c r="T13">
-        <v>0.02400521274700892</v>
+        <v>0.01952294733791147</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H14">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I14">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J14">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N14">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O14">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P14">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q14">
-        <v>0.8912217227853334</v>
+        <v>0.8938233952946667</v>
       </c>
       <c r="R14">
-        <v>8.020995505068001</v>
+        <v>8.044410557652</v>
       </c>
       <c r="S14">
-        <v>0.007939339830589552</v>
+        <v>0.005663139086084349</v>
       </c>
       <c r="T14">
-        <v>0.007939339830589552</v>
+        <v>0.00566313908608435</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H15">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I15">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J15">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N15">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O15">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P15">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q15">
-        <v>2.39798467700711</v>
+        <v>1.820749796581333</v>
       </c>
       <c r="R15">
-        <v>21.58186209306399</v>
+        <v>16.386748169232</v>
       </c>
       <c r="S15">
-        <v>0.02136215351641705</v>
+        <v>0.01153601415366913</v>
       </c>
       <c r="T15">
-        <v>0.02136215351641705</v>
+        <v>0.01153601415366913</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H16">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I16">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J16">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N16">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O16">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P16">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q16">
-        <v>1.615926409086889</v>
+        <v>1.260789178329333</v>
       </c>
       <c r="R16">
-        <v>14.543337681782</v>
+        <v>11.347102604964</v>
       </c>
       <c r="S16">
-        <v>0.01439528298622414</v>
+        <v>0.007988182579127015</v>
       </c>
       <c r="T16">
-        <v>0.01439528298622414</v>
+        <v>0.007988182579127017</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H17">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I17">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J17">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N17">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O17">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P17">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q17">
-        <v>0.4413930467815555</v>
+        <v>0.3055017521359999</v>
       </c>
       <c r="R17">
-        <v>3.972537421034</v>
+        <v>2.749515769224</v>
       </c>
       <c r="S17">
-        <v>0.00393209602915185</v>
+        <v>0.001935616054017329</v>
       </c>
       <c r="T17">
-        <v>0.003932096029151851</v>
+        <v>0.001935616054017329</v>
       </c>
     </row>
   </sheetData>
